--- a/config/excel/formula.xlsx
+++ b/config/excel/formula.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>服务器导出字段类型</t>
+  </si>
+  <si>
+    <t>int32</t>
   </si>
   <si>
     <t>导出字段默认值</t>
@@ -484,9 +487,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -566,7 +569,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -594,10 +597,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -853,9 +856,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1143,7 +1146,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1171,10 +1174,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1506,10 +1509,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s" s="11">
         <v>12</v>
@@ -1518,7 +1521,7 @@
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" t="s" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="14">
@@ -1536,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s" s="17">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">

--- a/config/excel/formula.xlsx
+++ b/config/excel/formula.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>行列头两行不会被读取</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>int32</t>
-  </si>
-  <si>
-    <t>导出字段默认值</t>
   </si>
   <si>
     <t>a.atk-b.def</t>
@@ -249,7 +246,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -288,15 +285,6 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1428,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1520,88 +1508,77 @@
     </row>
     <row r="7" ht="14" customHeight="1">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="4"/>
+      <c r="C7" s="13">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s" s="14">
         <v>15</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
-        <v>0</v>
-      </c>
-      <c r="E7" s="15"/>
     </row>
     <row r="8" ht="14" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
         <v>1</v>
       </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s" s="17">
-        <v>16</v>
+      <c r="E8" s="16">
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="18">
-        <v>2</v>
-      </c>
-      <c r="D9" s="18">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0</v>
+      </c>
+      <c r="E9" s="16">
         <v>20</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="18">
-        <v>3</v>
-      </c>
-      <c r="D10" s="18">
-        <v>0</v>
-      </c>
-      <c r="E10" s="19">
-        <v>20</v>
-      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="17"/>
     </row>
     <row r="11" ht="14" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="12" ht="14" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" ht="14" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="17"/>
     </row>
     <row r="14" ht="14" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="20"/>
-    </row>
-    <row r="15" ht="14" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="20"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
